--- a/cta策略/result/螺纹/MA_1d/净值.xlsx
+++ b/cta策略/result/螺纹/MA_1d/净值.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -388,31 +412,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1">
-        <v>80</v>
-      </c>
-      <c r="H1" s="1">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1">
-        <v>120</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
